--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H2">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J2">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N2">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O2">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P2">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q2">
-        <v>363.6491013093025</v>
+        <v>408.6020099290294</v>
       </c>
       <c r="R2">
-        <v>363.6491013093025</v>
+        <v>3677.418089361264</v>
       </c>
       <c r="S2">
-        <v>0.03175773619034345</v>
+        <v>0.02986855548745412</v>
       </c>
       <c r="T2">
-        <v>0.03175773619034345</v>
+        <v>0.02986855548745413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H3">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J3">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N3">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O3">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P3">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q3">
-        <v>722.5290620085552</v>
+        <v>814.7964526017321</v>
       </c>
       <c r="R3">
-        <v>722.5290620085552</v>
+        <v>7333.168073415589</v>
       </c>
       <c r="S3">
-        <v>0.0630989799191263</v>
+        <v>0.0595611192899974</v>
       </c>
       <c r="T3">
-        <v>0.0630989799191263</v>
+        <v>0.05956111928999742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H4">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J4">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N4">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O4">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P4">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q4">
-        <v>575.4095477184417</v>
+        <v>646.4095417163306</v>
       </c>
       <c r="R4">
-        <v>575.4095477184417</v>
+        <v>5817.685875446977</v>
       </c>
       <c r="S4">
-        <v>0.05025092747941201</v>
+        <v>0.04725213972326649</v>
       </c>
       <c r="T4">
-        <v>0.05025092747941201</v>
+        <v>0.04725213972326649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H5">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J5">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N5">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O5">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P5">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q5">
-        <v>283.4276408659912</v>
+        <v>354.549080701352</v>
       </c>
       <c r="R5">
-        <v>283.4276408659912</v>
+        <v>3190.941726312168</v>
       </c>
       <c r="S5">
-        <v>0.02475193865532949</v>
+        <v>0.02591731962305705</v>
       </c>
       <c r="T5">
-        <v>0.02475193865532949</v>
+        <v>0.02591731962305706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7696748226313</v>
+        <v>15.466502</v>
       </c>
       <c r="H6">
-        <v>13.7696748226313</v>
+        <v>46.399506</v>
       </c>
       <c r="I6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593624</v>
       </c>
       <c r="J6">
-        <v>0.1855758239420591</v>
+        <v>0.1790656026593625</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N6">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O6">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P6">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q6">
-        <v>179.9623605135931</v>
+        <v>225.2613837619374</v>
       </c>
       <c r="R6">
-        <v>179.9623605135931</v>
+        <v>2027.352453857436</v>
       </c>
       <c r="S6">
-        <v>0.01571624169784789</v>
+        <v>0.01646646853558738</v>
       </c>
       <c r="T6">
-        <v>0.01571624169784789</v>
+        <v>0.01646646853558738</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H7">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J7">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N7">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O7">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P7">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q7">
-        <v>1037.55541887067</v>
+        <v>1072.801608178037</v>
       </c>
       <c r="R7">
-        <v>1037.55541887067</v>
+        <v>9655.214473602327</v>
       </c>
       <c r="S7">
-        <v>0.09061045704972055</v>
+        <v>0.07842113739592543</v>
       </c>
       <c r="T7">
-        <v>0.09061045704972055</v>
+        <v>0.07842113739592546</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H8">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J8">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N8">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O8">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P8">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q8">
-        <v>2061.503633253559</v>
+        <v>2139.282048173781</v>
       </c>
       <c r="R8">
-        <v>2061.503633253559</v>
+        <v>19253.53843356403</v>
       </c>
       <c r="S8">
-        <v>0.1800325871962393</v>
+        <v>0.1563802012875352</v>
       </c>
       <c r="T8">
-        <v>0.1800325871962393</v>
+        <v>0.1563802012875353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H9">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J9">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N9">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O9">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P9">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q9">
-        <v>1641.7455512901</v>
+        <v>1697.175195039684</v>
       </c>
       <c r="R9">
-        <v>1641.7455512901</v>
+        <v>15274.57675535715</v>
       </c>
       <c r="S9">
-        <v>0.1433748135821592</v>
+        <v>0.124062462379415</v>
       </c>
       <c r="T9">
-        <v>0.1433748135821592</v>
+        <v>0.124062462379415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H10">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J10">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N10">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O10">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P10">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q10">
-        <v>808.669356199277</v>
+        <v>930.8833894882706</v>
       </c>
       <c r="R10">
-        <v>808.669356199277</v>
+        <v>8377.950505394436</v>
       </c>
       <c r="S10">
-        <v>0.07062167343993532</v>
+        <v>0.06804700294085465</v>
       </c>
       <c r="T10">
-        <v>0.07062167343993532</v>
+        <v>0.06804700294085468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.2873258228032</v>
+        <v>40.60794566666667</v>
       </c>
       <c r="H11">
-        <v>39.2873258228032</v>
+        <v>121.823837</v>
       </c>
       <c r="I11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="J11">
-        <v>0.5294807578218187</v>
+        <v>0.4701442034896005</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.0694706179854</v>
+        <v>14.56446866666667</v>
       </c>
       <c r="N11">
-        <v>13.0694706179854</v>
+        <v>43.693406</v>
       </c>
       <c r="O11">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="P11">
-        <v>0.08468905789557399</v>
+        <v>0.09195774225221602</v>
       </c>
       <c r="Q11">
-        <v>513.4645505003455</v>
+        <v>591.4331522798692</v>
       </c>
       <c r="R11">
-        <v>513.4645505003455</v>
+        <v>5322.898370518822</v>
       </c>
       <c r="S11">
-        <v>0.04484122655376439</v>
+        <v>0.04323339948587008</v>
       </c>
       <c r="T11">
-        <v>0.04484122655376439</v>
+        <v>0.04323339948587009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H12">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J12">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.4094182319849</v>
+        <v>26.41851466666667</v>
       </c>
       <c r="N12">
-        <v>26.4094182319849</v>
+        <v>79.255544</v>
       </c>
       <c r="O12">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="P12">
-        <v>0.1711307837181363</v>
+        <v>0.1668023062155229</v>
       </c>
       <c r="Q12">
-        <v>558.3670101226054</v>
+        <v>1.097301812851555</v>
       </c>
       <c r="R12">
-        <v>558.3670101226054</v>
+        <v>9.875716315664</v>
       </c>
       <c r="S12">
-        <v>0.04876259047807228</v>
+        <v>8.021208728105227E-05</v>
       </c>
       <c r="T12">
-        <v>0.04876259047807228</v>
+        <v>8.02120872810523E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H13">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J13">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.4724854664712</v>
+        <v>52.681366</v>
       </c>
       <c r="N13">
-        <v>52.4724854664712</v>
+        <v>158.044098</v>
       </c>
       <c r="O13">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="P13">
-        <v>0.3400172424336222</v>
+        <v>0.3326217788644806</v>
       </c>
       <c r="Q13">
-        <v>1109.411217098716</v>
+        <v>2.188138097265333</v>
       </c>
       <c r="R13">
-        <v>1109.411217098716</v>
+        <v>19.693242875388</v>
       </c>
       <c r="S13">
-        <v>0.09688567531825656</v>
+        <v>0.0001599515484119468</v>
       </c>
       <c r="T13">
-        <v>0.09688567531825656</v>
+        <v>0.0001599515484119469</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H14">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J14">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>41.7881725698214</v>
+        <v>41.79416533333333</v>
       </c>
       <c r="N14">
-        <v>41.7881725698214</v>
+        <v>125.382496</v>
       </c>
       <c r="O14">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="P14">
-        <v>0.2707838036871735</v>
+        <v>0.2638817227960554</v>
       </c>
       <c r="Q14">
-        <v>883.5157507574129</v>
+        <v>1.735934588508445</v>
       </c>
       <c r="R14">
-        <v>883.5157507574129</v>
+        <v>15.623411296576</v>
       </c>
       <c r="S14">
-        <v>0.07715806262560229</v>
+        <v>0.0001268957501909038</v>
       </c>
       <c r="T14">
-        <v>0.07715806262560229</v>
+        <v>0.0001268957501909039</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>21.1427228429575</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H15">
-        <v>21.1427228429575</v>
+        <v>0.124606</v>
       </c>
       <c r="I15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="J15">
-        <v>0.2849434182361222</v>
+        <v>0.0004808811646609453</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.5834665318429</v>
+        <v>22.923676</v>
       </c>
       <c r="N15">
-        <v>20.5834665318429</v>
+        <v>68.771028</v>
       </c>
       <c r="O15">
-        <v>0.1333791122654942</v>
+        <v>0.144736449871725</v>
       </c>
       <c r="P15">
-        <v>0.1333791122654942</v>
+        <v>0.1447364498717251</v>
       </c>
       <c r="Q15">
-        <v>435.1905280300461</v>
+        <v>0.9521425238853334</v>
       </c>
       <c r="R15">
-        <v>435.1905280300461</v>
+        <v>8.569282714968001</v>
       </c>
       <c r="S15">
-        <v>0.03800550017022942</v>
+        <v>6.960103258320566E-05</v>
       </c>
       <c r="T15">
-        <v>0.03800550017022942</v>
+        <v>6.960103258320568E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04153533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.124606</v>
+      </c>
+      <c r="I16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="J16">
+        <v>0.0004808811646609453</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.56446866666667</v>
+      </c>
+      <c r="N16">
+        <v>43.693406</v>
+      </c>
+      <c r="O16">
+        <v>0.09195774225221602</v>
+      </c>
+      <c r="P16">
+        <v>0.09195774225221602</v>
+      </c>
+      <c r="Q16">
+        <v>0.604940060892889</v>
+      </c>
+      <c r="R16">
+        <v>5.444460548036</v>
+      </c>
+      <c r="S16">
+        <v>4.422074619383665E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.422074619383666E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H17">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I17">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J17">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.41851466666667</v>
+      </c>
+      <c r="N17">
+        <v>79.255544</v>
+      </c>
+      <c r="O17">
+        <v>0.1668023062155229</v>
+      </c>
+      <c r="P17">
+        <v>0.1668023062155229</v>
+      </c>
+      <c r="Q17">
+        <v>799.3555832875431</v>
+      </c>
+      <c r="R17">
+        <v>7194.200249587888</v>
+      </c>
+      <c r="S17">
+        <v>0.05843240124486226</v>
+      </c>
+      <c r="T17">
+        <v>0.05843240124486229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H18">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I18">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J18">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>52.681366</v>
+      </c>
+      <c r="N18">
+        <v>158.044098</v>
+      </c>
+      <c r="O18">
+        <v>0.3326217788644806</v>
+      </c>
+      <c r="P18">
+        <v>0.3326217788644806</v>
+      </c>
+      <c r="Q18">
+        <v>1594.001198729311</v>
+      </c>
+      <c r="R18">
+        <v>14346.0107885638</v>
+      </c>
+      <c r="S18">
+        <v>0.116520506738536</v>
+      </c>
+      <c r="T18">
+        <v>0.116520506738536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H19">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I19">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J19">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>41.79416533333333</v>
+      </c>
+      <c r="N19">
+        <v>125.382496</v>
+      </c>
+      <c r="O19">
+        <v>0.2638817227960554</v>
+      </c>
+      <c r="P19">
+        <v>0.2638817227960554</v>
+      </c>
+      <c r="Q19">
+        <v>1264.582806019577</v>
+      </c>
+      <c r="R19">
+        <v>11381.24525417619</v>
+      </c>
+      <c r="S19">
+        <v>0.09244022494318301</v>
+      </c>
+      <c r="T19">
+        <v>0.09244022494318302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="H16">
-        <v>21.1427228429575</v>
-      </c>
-      <c r="I16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="J16">
-        <v>0.2849434182361222</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.0694706179854</v>
-      </c>
-      <c r="N16">
-        <v>13.0694706179854</v>
-      </c>
-      <c r="O16">
-        <v>0.08468905789557399</v>
-      </c>
-      <c r="P16">
-        <v>0.08468905789557399</v>
-      </c>
-      <c r="Q16">
-        <v>276.3241949802418</v>
-      </c>
-      <c r="R16">
-        <v>276.3241949802418</v>
-      </c>
-      <c r="S16">
-        <v>0.02413158964396171</v>
-      </c>
-      <c r="T16">
-        <v>0.02413158964396171</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H20">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I20">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J20">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>22.923676</v>
+      </c>
+      <c r="N20">
+        <v>68.771028</v>
+      </c>
+      <c r="O20">
+        <v>0.144736449871725</v>
+      </c>
+      <c r="P20">
+        <v>0.1447364498717251</v>
+      </c>
+      <c r="Q20">
+        <v>693.6108494848506</v>
+      </c>
+      <c r="R20">
+        <v>6242.497645363655</v>
+      </c>
+      <c r="S20">
+        <v>0.05070252627523013</v>
+      </c>
+      <c r="T20">
+        <v>0.05070252627523015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>30.25740066666667</v>
+      </c>
+      <c r="H21">
+        <v>90.77220199999999</v>
+      </c>
+      <c r="I21">
+        <v>0.3503093126863761</v>
+      </c>
+      <c r="J21">
+        <v>0.3503093126863762</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.56446866666667</v>
+      </c>
+      <c r="N21">
+        <v>43.693406</v>
+      </c>
+      <c r="O21">
+        <v>0.09195774225221602</v>
+      </c>
+      <c r="P21">
+        <v>0.09195774225221602</v>
+      </c>
+      <c r="Q21">
+        <v>440.6829639444458</v>
+      </c>
+      <c r="R21">
+        <v>3966.146675500012</v>
+      </c>
+      <c r="S21">
+        <v>0.03221365348456472</v>
+      </c>
+      <c r="T21">
+        <v>0.03221365348456472</v>
       </c>
     </row>
   </sheetData>
